--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fzd3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H2">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2590246666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N2">
-        <v>0.777074</v>
+        <v>0.824139</v>
       </c>
       <c r="O2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q2">
-        <v>1.426677299089333</v>
+        <v>1.832381770213</v>
       </c>
       <c r="R2">
-        <v>12.840095691804</v>
+        <v>16.491435931917</v>
       </c>
       <c r="S2">
-        <v>0.00377636915252122</v>
+        <v>0.004467479286106309</v>
       </c>
       <c r="T2">
-        <v>0.00377636915252122</v>
+        <v>0.004467479286106309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H3">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.666015</v>
       </c>
       <c r="O3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q3">
-        <v>4.894698676743332</v>
+        <v>5.927589017282778</v>
       </c>
       <c r="R3">
-        <v>44.05228809069</v>
+        <v>53.34830115554499</v>
       </c>
       <c r="S3">
-        <v>0.01295611075156144</v>
+        <v>0.01445189074773637</v>
       </c>
       <c r="T3">
-        <v>0.01295611075156144</v>
+        <v>0.01445189074773638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H4">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.265788666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N4">
-        <v>3.797366</v>
+        <v>4.31443</v>
       </c>
       <c r="O4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q4">
-        <v>6.971814612937333</v>
+        <v>9.592657162032223</v>
       </c>
       <c r="R4">
-        <v>62.74633151643599</v>
+        <v>86.33391445829</v>
       </c>
       <c r="S4">
-        <v>0.01845417016041316</v>
+        <v>0.02338759196732061</v>
       </c>
       <c r="T4">
-        <v>0.01845417016041316</v>
+        <v>0.02338759196732061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.507882</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H5">
-        <v>16.523646</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I5">
-        <v>0.03518866199235487</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J5">
-        <v>0.03518866199235487</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.000138</v>
+        <v>0.274713</v>
       </c>
       <c r="N5">
-        <v>0.000414</v>
+        <v>0.824139</v>
       </c>
       <c r="O5">
-        <v>5.71754578076195E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P5">
-        <v>5.717545780761951E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q5">
-        <v>0.0007600877159999999</v>
+        <v>41.20352112390501</v>
       </c>
       <c r="R5">
-        <v>0.006840789443999999</v>
+        <v>370.831690115145</v>
       </c>
       <c r="S5">
-        <v>2.01192785905047E-06</v>
+        <v>0.1004571646192987</v>
       </c>
       <c r="T5">
-        <v>2.01192785905047E-06</v>
+        <v>0.1004571646192987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I6">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J6">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2590246666666667</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N6">
-        <v>0.777074</v>
+        <v>2.666015</v>
       </c>
       <c r="O6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q6">
-        <v>38.85046694045223</v>
+        <v>133.2896578964806</v>
       </c>
       <c r="R6">
-        <v>349.6542024640701</v>
+        <v>1199.606921068325</v>
       </c>
       <c r="S6">
-        <v>0.1028359426540385</v>
+        <v>0.3249698263672992</v>
       </c>
       <c r="T6">
-        <v>0.1028359426540385</v>
+        <v>0.3249698263672993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J7">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8886716666666666</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N7">
-        <v>2.666015</v>
+        <v>4.31443</v>
       </c>
       <c r="O7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q7">
-        <v>133.2896578964806</v>
+        <v>215.7035495742945</v>
       </c>
       <c r="R7">
-        <v>1199.606921068325</v>
+        <v>1941.33194616865</v>
       </c>
       <c r="S7">
-        <v>0.352813458763009</v>
+        <v>0.5259008550116435</v>
       </c>
       <c r="T7">
-        <v>0.3528134587630091</v>
+        <v>0.5259008550116436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>149.9875183333334</v>
+        <v>1.003544</v>
       </c>
       <c r="H8">
-        <v>449.9625550000001</v>
+        <v>3.010632</v>
       </c>
       <c r="I8">
-        <v>0.9582376829612175</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J8">
-        <v>0.9582376829612176</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +924,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.265788666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N8">
-        <v>3.797366</v>
+        <v>0.824139</v>
       </c>
       <c r="O8">
-        <v>0.524435119596833</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P8">
-        <v>0.524435119596833</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q8">
-        <v>189.8525008477922</v>
+        <v>0.275686582872</v>
       </c>
       <c r="R8">
-        <v>1708.67250763013</v>
+        <v>2.481179245848</v>
       </c>
       <c r="S8">
-        <v>0.5025334938659582</v>
+        <v>0.0006721438285728653</v>
       </c>
       <c r="T8">
-        <v>0.5025334938659582</v>
+        <v>0.0006721438285728654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>149.9875183333334</v>
+        <v>1.003544</v>
       </c>
       <c r="H9">
-        <v>449.9625550000001</v>
+        <v>3.010632</v>
       </c>
       <c r="I9">
-        <v>0.9582376829612175</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J9">
-        <v>0.9582376829612176</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.000138</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N9">
-        <v>0.000414</v>
+        <v>2.666015</v>
       </c>
       <c r="O9">
-        <v>5.71754578076195E-05</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P9">
-        <v>5.717545780761951E-05</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q9">
-        <v>0.02069827753</v>
+        <v>0.8918211190533333</v>
       </c>
       <c r="R9">
-        <v>0.18628449777</v>
+        <v>8.02639007148</v>
       </c>
       <c r="S9">
-        <v>5.478767821182016E-05</v>
+        <v>0.00217432439082811</v>
       </c>
       <c r="T9">
-        <v>5.478767821182018E-05</v>
+        <v>0.00217432439082811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H10">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I10">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J10">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2590246666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N10">
-        <v>0.777074</v>
+        <v>4.31443</v>
       </c>
       <c r="O10">
-        <v>0.1073177818850196</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P10">
-        <v>0.1073177818850196</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q10">
-        <v>0.266520063446</v>
+        <v>1.443240113306667</v>
       </c>
       <c r="R10">
-        <v>2.398680571014</v>
+        <v>12.98916101976</v>
       </c>
       <c r="S10">
-        <v>0.0007054700784598737</v>
+        <v>0.003518723781194225</v>
       </c>
       <c r="T10">
-        <v>0.0007054700784598737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.028937</v>
-      </c>
-      <c r="H11">
-        <v>3.086811</v>
-      </c>
-      <c r="I11">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="J11">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.8886716666666666</v>
-      </c>
-      <c r="N11">
-        <v>2.666015</v>
-      </c>
-      <c r="O11">
-        <v>0.3681899230603399</v>
-      </c>
-      <c r="P11">
-        <v>0.3681899230603399</v>
-      </c>
-      <c r="Q11">
-        <v>0.914387158685</v>
-      </c>
-      <c r="R11">
-        <v>8.229484428165</v>
-      </c>
-      <c r="S11">
-        <v>0.002420353545769386</v>
-      </c>
-      <c r="T11">
-        <v>0.002420353545769386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.028937</v>
-      </c>
-      <c r="H12">
-        <v>3.086811</v>
-      </c>
-      <c r="I12">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="J12">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.265788666666667</v>
-      </c>
-      <c r="N12">
-        <v>3.797366</v>
-      </c>
-      <c r="O12">
-        <v>0.524435119596833</v>
-      </c>
-      <c r="P12">
-        <v>0.524435119596833</v>
-      </c>
-      <c r="Q12">
-        <v>1.302416793314</v>
-      </c>
-      <c r="R12">
-        <v>11.721751139826</v>
-      </c>
-      <c r="S12">
-        <v>0.003447455570461573</v>
-      </c>
-      <c r="T12">
-        <v>0.003447455570461573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.028937</v>
-      </c>
-      <c r="H13">
-        <v>3.086811</v>
-      </c>
-      <c r="I13">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="J13">
-        <v>0.006573655046427582</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.000138</v>
-      </c>
-      <c r="N13">
-        <v>0.000414</v>
-      </c>
-      <c r="O13">
-        <v>5.71754578076195E-05</v>
-      </c>
-      <c r="P13">
-        <v>5.717545780761951E-05</v>
-      </c>
-      <c r="Q13">
-        <v>0.000141993306</v>
-      </c>
-      <c r="R13">
-        <v>0.001277939754</v>
-      </c>
-      <c r="S13">
-        <v>3.758517367488652E-07</v>
-      </c>
-      <c r="T13">
-        <v>3.758517367488652E-07</v>
+        <v>0.003518723781194225</v>
       </c>
     </row>
   </sheetData>
